--- a/random_numbers.xlsx
+++ b/random_numbers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A81"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,408 +436,1878 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Range 0.09999999999999999-1.2</t>
+          <t>Index</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Column 1 (Range 0.0-100.0)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Column 2 (Range 0.0-100.0)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Column 3 (Range 0.0-100.0)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Column 4 (Range 0.0-100.0)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Column 5 (Range 0.0-100.0)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Column 1 (Range 0.0-100.0) Column 2 (Range 0.0-100.0) Multiply</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0.5212917787250029</v>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>47.61332661980811</v>
+      </c>
+      <c r="C2" t="n">
+        <v>78.97499037187032</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.33057755805721</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10.92408732281032</v>
+      </c>
+      <c r="F2" t="n">
+        <v>94.37126513064185</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3760.262011372062</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>0.8515890136730473</v>
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>83.31656858321847</v>
+      </c>
+      <c r="C3" t="n">
+        <v>32.86791687493243</v>
+      </c>
+      <c r="D3" t="n">
+        <v>71.71243751990734</v>
+      </c>
+      <c r="E3" t="n">
+        <v>18.28289942953656</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.993665755309262</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2738.442050497831</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0.1092175466125681</v>
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>39.37481865572192</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.646331162192123</v>
+      </c>
+      <c r="D4" t="n">
+        <v>61.30062992428722</v>
+      </c>
+      <c r="E4" t="n">
+        <v>96.73061267932849</v>
+      </c>
+      <c r="F4" t="n">
+        <v>65.36890717743631</v>
+      </c>
+      <c r="G4" t="n">
+        <v>379.8225402043541</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>0.8944897189436428</v>
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>59.70263972171336</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.286212648014884</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.80431374846377</v>
+      </c>
+      <c r="E5" t="n">
+        <v>68.40315473995447</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.195348724929849</v>
+      </c>
+      <c r="G5" t="n">
+        <v>76.79029032994353</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>0.848718281249077</v>
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>47.35670845008534</v>
+      </c>
+      <c r="C6" t="n">
+        <v>25.34359111911336</v>
+      </c>
+      <c r="D6" t="n">
+        <v>82.89791742888664</v>
+      </c>
+      <c r="E6" t="n">
+        <v>26.06893302224372</v>
+      </c>
+      <c r="F6" t="n">
+        <v>78.02070121727498</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1200.189055706024</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>0.703323368892902</v>
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>64.77092834786897</v>
+      </c>
+      <c r="C7" t="n">
+        <v>45.0775810779033</v>
+      </c>
+      <c r="D7" t="n">
+        <v>88.86511646976261</v>
+      </c>
+      <c r="E7" t="n">
+        <v>36.42481537795679</v>
+      </c>
+      <c r="F7" t="n">
+        <v>88.07613864611609</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2919.716774092129</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>0.7761088589969821</v>
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>18.06107972385916</v>
+      </c>
+      <c r="C8" t="n">
+        <v>88.22827186595215</v>
+      </c>
+      <c r="D8" t="n">
+        <v>67.73231475190147</v>
+      </c>
+      <c r="E8" t="n">
+        <v>99.19650041514406</v>
+      </c>
+      <c r="F8" t="n">
+        <v>39.31809541955652</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1593.497852069282</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>0.5590902001195954</v>
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>38.77690850441466</v>
+      </c>
+      <c r="C9" t="n">
+        <v>82.83906436475235</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.85624420807244</v>
+      </c>
+      <c r="E9" t="n">
+        <v>39.9292913819817</v>
+      </c>
+      <c r="F9" t="n">
+        <v>89.54018062710372</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3212.242819463318</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>0.2026298815971829</v>
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>53.54800837544581</v>
+      </c>
+      <c r="C10" t="n">
+        <v>28.2484746375308</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14.60971508742244</v>
+      </c>
+      <c r="E10" t="n">
+        <v>36.91912746830417</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.787009867985514</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1512.649556484068</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>0.9228575162933651</v>
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7.224837594896827</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20.50749869149228</v>
+      </c>
+      <c r="D11" t="n">
+        <v>96.09596744774545</v>
+      </c>
+      <c r="E11" t="n">
+        <v>93.03642676856893</v>
+      </c>
+      <c r="F11" t="n">
+        <v>28.97327068749513</v>
+      </c>
+      <c r="G11" t="n">
+        <v>148.1633475235909</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>0.2970241666713577</v>
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>84.05189705013166</v>
+      </c>
+      <c r="C12" t="n">
+        <v>38.46268961878607</v>
+      </c>
+      <c r="D12" t="n">
+        <v>82.84473330091144</v>
+      </c>
+      <c r="E12" t="n">
+        <v>69.74368810077158</v>
+      </c>
+      <c r="F12" t="n">
+        <v>78.35476488898813</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3232.862028109374</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>1.085356107569516</v>
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>65.76730894373148</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12.39191987177696</v>
+      </c>
+      <c r="D13" t="n">
+        <v>22.37717598366828</v>
+      </c>
+      <c r="E13" t="n">
+        <v>44.11027568486511</v>
+      </c>
+      <c r="F13" t="n">
+        <v>67.46651669903872</v>
+      </c>
+      <c r="G13" t="n">
+        <v>814.9832226131206</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>0.2991909989072857</v>
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>53.47478937541018</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20.4355106894755</v>
+      </c>
+      <c r="D14" t="n">
+        <v>30.50689891336842</v>
+      </c>
+      <c r="E14" t="n">
+        <v>86.75227416106934</v>
+      </c>
+      <c r="F14" t="n">
+        <v>83.60347222646939</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1092.784629898646</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>1.168528325098046</v>
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>89.45685386394811</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8.158483077164414</v>
+      </c>
+      <c r="D15" t="n">
+        <v>71.26617590704629</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.60784269825821</v>
+      </c>
+      <c r="F15" t="n">
+        <v>60.25630926099014</v>
+      </c>
+      <c r="G15" t="n">
+        <v>729.8322283853906</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>0.5975049120214252</v>
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>54.29005032942575</v>
+      </c>
+      <c r="C16" t="n">
+        <v>86.52863158403885</v>
+      </c>
+      <c r="D16" t="n">
+        <v>70.71442043880576</v>
+      </c>
+      <c r="E16" t="n">
+        <v>95.76597548122653</v>
+      </c>
+      <c r="F16" t="n">
+        <v>54.56873559860215</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4697.643763633807</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>0.8273260611650328</v>
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>61.0866707782091</v>
+      </c>
+      <c r="C17" t="n">
+        <v>76.22383711748651</v>
+      </c>
+      <c r="D17" t="n">
+        <v>91.56815503621775</v>
+      </c>
+      <c r="E17" t="n">
+        <v>20.81743395117331</v>
+      </c>
+      <c r="F17" t="n">
+        <v>11.9362582878927</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4656.260443447733</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>1.073513548151487</v>
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>7.050628605893483</v>
+      </c>
+      <c r="C18" t="n">
+        <v>79.96094703142798</v>
+      </c>
+      <c r="D18" t="n">
+        <v>53.22615047319985</v>
+      </c>
+      <c r="E18" t="n">
+        <v>57.90076167243361</v>
+      </c>
+      <c r="F18" t="n">
+        <v>46.30446432070877</v>
+      </c>
+      <c r="G18" t="n">
+        <v>563.7749404941196</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>0.229892900135568</v>
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>74.83030785324883</v>
+      </c>
+      <c r="C19" t="n">
+        <v>32.98265016187302</v>
+      </c>
+      <c r="D19" t="n">
+        <v>82.34338303217483</v>
+      </c>
+      <c r="E19" t="n">
+        <v>92.67098023489848</v>
+      </c>
+      <c r="F19" t="n">
+        <v>69.16421860541072</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2468.101865428966</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>0.5126549710260069</v>
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>7.81783874701688</v>
+      </c>
+      <c r="C20" t="n">
+        <v>70.05565481694141</v>
+      </c>
+      <c r="D20" t="n">
+        <v>20.08881109267181</v>
+      </c>
+      <c r="E20" t="n">
+        <v>16.83673143255603</v>
+      </c>
+      <c r="F20" t="n">
+        <v>57.35687682157651</v>
+      </c>
+      <c r="G20" t="n">
+        <v>547.6838126755243</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>0.9983058484010758</v>
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>16.95932181109732</v>
+      </c>
+      <c r="C21" t="n">
+        <v>30.72032154675446</v>
+      </c>
+      <c r="D21" t="n">
+        <v>57.39446155828533</v>
+      </c>
+      <c r="E21" t="n">
+        <v>93.98316668216849</v>
+      </c>
+      <c r="F21" t="n">
+        <v>83.10066243334842</v>
+      </c>
+      <c r="G21" t="n">
+        <v>520.9958192517958</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>0.9161824689015586</v>
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>14.37375479218834</v>
+      </c>
+      <c r="C22" t="n">
+        <v>11.65645745517895</v>
+      </c>
+      <c r="D22" t="n">
+        <v>95.53774543380349</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.797393281970051</v>
+      </c>
+      <c r="F22" t="n">
+        <v>80.0953494706382</v>
+      </c>
+      <c r="G22" t="n">
+        <v>167.5470612063179</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>0.2145091953689711</v>
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6.205449440124489</v>
+      </c>
+      <c r="C23" t="n">
+        <v>45.76487583261687</v>
+      </c>
+      <c r="D23" t="n">
+        <v>77.42270265812398</v>
+      </c>
+      <c r="E23" t="n">
+        <v>27.66616847828699</v>
+      </c>
+      <c r="F23" t="n">
+        <v>81.03898974378203</v>
+      </c>
+      <c r="G23" t="n">
+        <v>283.9916231128791</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>0.2224727150938235</v>
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>65.18076602271333</v>
+      </c>
+      <c r="C24" t="n">
+        <v>23.11922866894405</v>
+      </c>
+      <c r="D24" t="n">
+        <v>14.72734190356526</v>
+      </c>
+      <c r="E24" t="n">
+        <v>39.65455103652411</v>
+      </c>
+      <c r="F24" t="n">
+        <v>93.85110922551011</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1506.929034496048</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>1.13536478654335</v>
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>91.62009213592401</v>
+      </c>
+      <c r="C25" t="n">
+        <v>18.69095057509934</v>
+      </c>
+      <c r="D25" t="n">
+        <v>90.31186609148361</v>
+      </c>
+      <c r="E25" t="n">
+        <v>36.72892647340373</v>
+      </c>
+      <c r="F25" t="n">
+        <v>18.14245754712752</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1712.466613798603</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>0.7415082935118105</v>
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>62.63042624328005</v>
+      </c>
+      <c r="C26" t="n">
+        <v>85.12899533649768</v>
+      </c>
+      <c r="D26" t="n">
+        <v>48.9708383960488</v>
+      </c>
+      <c r="E26" t="n">
+        <v>41.81774270231317</v>
+      </c>
+      <c r="F26" t="n">
+        <v>65.32384526382404</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5331.66526358705</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>0.2203432336389811</v>
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>47.20606319306953</v>
+      </c>
+      <c r="C27" t="n">
+        <v>36.3697960086165</v>
+      </c>
+      <c r="D27" t="n">
+        <v>47.6942262974127</v>
+      </c>
+      <c r="E27" t="n">
+        <v>98.51359134676224</v>
+      </c>
+      <c r="F27" t="n">
+        <v>82.95910091357021</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1716.874888701798</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>1.131435829368163</v>
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>10.0624771261444</v>
+      </c>
+      <c r="C28" t="n">
+        <v>80.10455766706826</v>
+      </c>
+      <c r="D28" t="n">
+        <v>48.45176928156108</v>
+      </c>
+      <c r="E28" t="n">
+        <v>88.34709882443671</v>
+      </c>
+      <c r="F28" t="n">
+        <v>11.22220158829614</v>
+      </c>
+      <c r="G28" t="n">
+        <v>806.0502792247893</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>1.161810329197581</v>
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>24.97328079879581</v>
+      </c>
+      <c r="C29" t="n">
+        <v>79.76536735118169</v>
+      </c>
+      <c r="D29" t="n">
+        <v>36.6645692847603</v>
+      </c>
+      <c r="E29" t="n">
+        <v>59.87476365532098</v>
+      </c>
+      <c r="F29" t="n">
+        <v>23.99164489550027</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1992.00291688016</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>0.9722604367183039</v>
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>81.33651671790861</v>
+      </c>
+      <c r="C30" t="n">
+        <v>13.95080669205939</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.804488402039396</v>
+      </c>
+      <c r="E30" t="n">
+        <v>38.29055663283031</v>
+      </c>
+      <c r="F30" t="n">
+        <v>7.597516682175797</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1134.710021737</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>1.146114807316383</v>
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>38.47670173099178</v>
+      </c>
+      <c r="C31" t="n">
+        <v>79.89708841385654</v>
+      </c>
+      <c r="D31" t="n">
+        <v>96.41405531545902</v>
+      </c>
+      <c r="E31" t="n">
+        <v>73.6411476703833</v>
+      </c>
+      <c r="F31" t="n">
+        <v>64.37437846188622</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3074.176440074637</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>0.5859822104003324</v>
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>85.08814094260039</v>
+      </c>
+      <c r="C32" t="n">
+        <v>32.04958544036004</v>
+      </c>
+      <c r="D32" t="n">
+        <v>37.09302433034863</v>
+      </c>
+      <c r="E32" t="n">
+        <v>92.79494745629468</v>
+      </c>
+      <c r="F32" t="n">
+        <v>74.97170844721134</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2727.039643101269</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>0.7157821752859249</v>
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>84.21211047931531</v>
+      </c>
+      <c r="C33" t="n">
+        <v>41.26450696523612</v>
+      </c>
+      <c r="D33" t="n">
+        <v>9.405103128346903</v>
+      </c>
+      <c r="E33" t="n">
+        <v>39.91253954085785</v>
+      </c>
+      <c r="F33" t="n">
+        <v>46.10761917828368</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3474.97121943094</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>0.4922815089457528</v>
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>12.04984416191571</v>
+      </c>
+      <c r="C34" t="n">
+        <v>14.04881017331711</v>
+      </c>
+      <c r="D34" t="n">
+        <v>23.18409512200318</v>
+      </c>
+      <c r="E34" t="n">
+        <v>59.20790744619872</v>
+      </c>
+      <c r="F34" t="n">
+        <v>57.62625924312695</v>
+      </c>
+      <c r="G34" t="n">
+        <v>169.2859732488072</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>1.166692977180535</v>
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>48.37380897637513</v>
+      </c>
+      <c r="C35" t="n">
+        <v>60.96777820136412</v>
+      </c>
+      <c r="D35" t="n">
+        <v>13.56564612205883</v>
+      </c>
+      <c r="E35" t="n">
+        <v>89.01360549495779</v>
+      </c>
+      <c r="F35" t="n">
+        <v>59.18100682007247</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2949.243656426795</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>1.157745858427807</v>
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5.1145505145888</v>
+      </c>
+      <c r="C36" t="n">
+        <v>88.87883139119863</v>
+      </c>
+      <c r="D36" t="n">
+        <v>65.54316736603157</v>
+      </c>
+      <c r="E36" t="n">
+        <v>54.47387364160726</v>
+      </c>
+      <c r="F36" t="n">
+        <v>82.04327439078615</v>
+      </c>
+      <c r="G36" t="n">
+        <v>454.5752728279062</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>0.8130988988157695</v>
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>73.19431975981766</v>
+      </c>
+      <c r="C37" t="n">
+        <v>91.07404230194516</v>
+      </c>
+      <c r="D37" t="n">
+        <v>82.62830886996142</v>
+      </c>
+      <c r="E37" t="n">
+        <v>30.42458720190099</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3.597049928319529</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6666.102574067733</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>0.6242402865681436</v>
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>69.83998553225454</v>
+      </c>
+      <c r="C38" t="n">
+        <v>13.75185125812857</v>
+      </c>
+      <c r="D38" t="n">
+        <v>99.72644542458575</v>
+      </c>
+      <c r="E38" t="n">
+        <v>28.90617574898523</v>
+      </c>
+      <c r="F38" t="n">
+        <v>99.72777777497382</v>
+      </c>
+      <c r="G38" t="n">
+        <v>960.4290929094157</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>0.9634718412293993</v>
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>87.0242457189273</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3.985460415477271</v>
+      </c>
+      <c r="D39" t="n">
+        <v>95.66125882386591</v>
+      </c>
+      <c r="E39" t="n">
+        <v>58.34502815626309</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.924493231965019</v>
+      </c>
+      <c r="G39" t="n">
+        <v>346.8316864995521</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>0.5106611013830666</v>
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>69.63607865979951</v>
+      </c>
+      <c r="C40" t="n">
+        <v>44.77330564196824</v>
+      </c>
+      <c r="D40" t="n">
+        <v>79.36572714480126</v>
+      </c>
+      <c r="E40" t="n">
+        <v>50.46524209612087</v>
+      </c>
+      <c r="F40" t="n">
+        <v>10.02997970305797</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3117.837433543345</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>0.7389963152268244</v>
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>16.56649537733777</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39.53457301878689</v>
+      </c>
+      <c r="D41" t="n">
+        <v>55.3116327281215</v>
+      </c>
+      <c r="E41" t="n">
+        <v>99.8345140989443</v>
+      </c>
+      <c r="F41" t="n">
+        <v>85.91742673314296</v>
+      </c>
+      <c r="G41" t="n">
+        <v>654.9493211607553</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>0.4356063620712147</v>
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>25.83803929483954</v>
+      </c>
+      <c r="C42" t="n">
+        <v>33.63039804623352</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.755069706844184</v>
+      </c>
+      <c r="E42" t="n">
+        <v>28.83692510271771</v>
+      </c>
+      <c r="F42" t="n">
+        <v>84.7062667969184</v>
+      </c>
+      <c r="G42" t="n">
+        <v>868.9435462196768</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>0.88773277554028</v>
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9813300253829316</v>
+      </c>
+      <c r="C43" t="n">
+        <v>19.8549904256871</v>
+      </c>
+      <c r="D43" t="n">
+        <v>71.23637785457016</v>
+      </c>
+      <c r="E43" t="n">
+        <v>31.07226807849005</v>
+      </c>
+      <c r="F43" t="n">
+        <v>90.08665854651883</v>
+      </c>
+      <c r="G43" t="n">
+        <v>19.48429825841739</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>0.569801528794088</v>
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>38.38866004886551</v>
+      </c>
+      <c r="C44" t="n">
+        <v>62.37161743242608</v>
+      </c>
+      <c r="D44" t="n">
+        <v>23.16753633876637</v>
+      </c>
+      <c r="E44" t="n">
+        <v>61.23619794853743</v>
+      </c>
+      <c r="F44" t="n">
+        <v>45.57184513654487</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2394.362818311299</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>0.3235707925749937</v>
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>7.453653829830243</v>
+      </c>
+      <c r="C45" t="n">
+        <v>31.08216775063183</v>
+      </c>
+      <c r="D45" t="n">
+        <v>16.93834586602166</v>
+      </c>
+      <c r="E45" t="n">
+        <v>64.15026843484029</v>
+      </c>
+      <c r="F45" t="n">
+        <v>10.76362953496227</v>
+      </c>
+      <c r="G45" t="n">
+        <v>231.675718693923</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>0.6465980787530911</v>
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>79.94169152206521</v>
+      </c>
+      <c r="C46" t="n">
+        <v>9.471871561721079</v>
+      </c>
+      <c r="D46" t="n">
+        <v>93.79145226789299</v>
+      </c>
+      <c r="E46" t="n">
+        <v>63.32137557835549</v>
+      </c>
+      <c r="F46" t="n">
+        <v>62.68822885082841</v>
+      </c>
+      <c r="G46" t="n">
+        <v>757.1974345237286</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>0.9414434278265426</v>
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>22.9578260688095</v>
+      </c>
+      <c r="C47" t="n">
+        <v>26.45424352274893</v>
+      </c>
+      <c r="D47" t="n">
+        <v>33.0328356112397</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.169306261774063</v>
+      </c>
+      <c r="F47" t="n">
+        <v>76.14069850187212</v>
+      </c>
+      <c r="G47" t="n">
+        <v>607.3319215772002</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>0.1701733408092247</v>
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>18.21491006171435</v>
+      </c>
+      <c r="C48" t="n">
+        <v>17.95684515967523</v>
+      </c>
+      <c r="D48" t="n">
+        <v>99.31860746940417</v>
+      </c>
+      <c r="E48" t="n">
+        <v>49.9909989012417</v>
+      </c>
+      <c r="F48" t="n">
+        <v>91.34608591285016</v>
+      </c>
+      <c r="G48" t="n">
+        <v>327.082319575615</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>1.113479185607583</v>
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>30.89686021432895</v>
+      </c>
+      <c r="C49" t="n">
+        <v>44.51812595949048</v>
+      </c>
+      <c r="D49" t="n">
+        <v>23.0431931068935</v>
+      </c>
+      <c r="E49" t="n">
+        <v>6.404521466258418</v>
+      </c>
+      <c r="F49" t="n">
+        <v>72.69226312007686</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1375.470314774266</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>0.5854068076307464</v>
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>62.48499054748194</v>
+      </c>
+      <c r="C50" t="n">
+        <v>53.05365542865997</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.9193612787037231</v>
+      </c>
+      <c r="E50" t="n">
+        <v>69.31886234345511</v>
+      </c>
+      <c r="F50" t="n">
+        <v>54.30474202314577</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3315.057157969182</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>0.961715132497171</v>
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>26.57951954689933</v>
+      </c>
+      <c r="C51" t="n">
+        <v>75.24975300810544</v>
+      </c>
+      <c r="D51" t="n">
+        <v>48.04829309375045</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.4071647374855769</v>
+      </c>
+      <c r="F51" t="n">
+        <v>99.32275350260583</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2000.102280978286</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>0.40492475122463</v>
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>9.6615825491007</v>
+      </c>
+      <c r="C52" t="n">
+        <v>6.3985623779924</v>
+      </c>
+      <c r="D52" t="n">
+        <v>71.34198001874</v>
+      </c>
+      <c r="E52" t="n">
+        <v>71.43722460813824</v>
+      </c>
+      <c r="F52" t="n">
+        <v>48.22522349114866</v>
+      </c>
+      <c r="G52" t="n">
+        <v>61.82023861054365</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>0.583875769401706</v>
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>96.79718823689501</v>
+      </c>
+      <c r="C53" t="n">
+        <v>65.26394664377089</v>
+      </c>
+      <c r="D53" t="n">
+        <v>21.21165785441251</v>
+      </c>
+      <c r="E53" t="n">
+        <v>11.18298397664188</v>
+      </c>
+      <c r="F53" t="n">
+        <v>17.45716586266366</v>
+      </c>
+      <c r="G53" t="n">
+        <v>6317.366528359764</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>0.7692609152360667</v>
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>70.58350923321449</v>
+      </c>
+      <c r="C54" t="n">
+        <v>82.92586290215122</v>
+      </c>
+      <c r="D54" t="n">
+        <v>35.77558517461136</v>
+      </c>
+      <c r="E54" t="n">
+        <v>10.58219732862956</v>
+      </c>
+      <c r="F54" t="n">
+        <v>57.44329659889714</v>
+      </c>
+      <c r="G54" t="n">
+        <v>5853.198409826269</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>0.3246746634200559</v>
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>54.89687591693191</v>
+      </c>
+      <c r="C55" t="n">
+        <v>22.21498875409245</v>
+      </c>
+      <c r="D55" t="n">
+        <v>42.98879082119687</v>
+      </c>
+      <c r="E55" t="n">
+        <v>81.46544935239201</v>
+      </c>
+      <c r="F55" t="n">
+        <v>75.8551013022973</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1219.533481129451</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>0.2986497509246985</v>
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>9.038557143624438</v>
+      </c>
+      <c r="C56" t="n">
+        <v>18.1298297814721</v>
+      </c>
+      <c r="D56" t="n">
+        <v>85.32837518446462</v>
+      </c>
+      <c r="E56" t="n">
+        <v>39.57258007272812</v>
+      </c>
+      <c r="F56" t="n">
+        <v>43.99912108674562</v>
+      </c>
+      <c r="G56" t="n">
+        <v>163.8675024840197</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>0.5891010049763781</v>
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>14.42122849002457</v>
+      </c>
+      <c r="C57" t="n">
+        <v>10.84371823731242</v>
+      </c>
+      <c r="D57" t="n">
+        <v>90.72893774227418</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2.700207965900281</v>
+      </c>
+      <c r="F57" t="n">
+        <v>99.65417960420643</v>
+      </c>
+      <c r="G57" t="n">
+        <v>156.3797383817289</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>0.1477497589939556</v>
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>25.26649937446359</v>
+      </c>
+      <c r="C58" t="n">
+        <v>81.34041091731535</v>
+      </c>
+      <c r="D58" t="n">
+        <v>39.17171536898015</v>
+      </c>
+      <c r="E58" t="n">
+        <v>18.45632608645666</v>
+      </c>
+      <c r="F58" t="n">
+        <v>97.69660230249573</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2055.18744156096</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>0.7318062941542249</v>
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>25.85690179679346</v>
+      </c>
+      <c r="C59" t="n">
+        <v>29.6643081670167</v>
+      </c>
+      <c r="D59" t="n">
+        <v>45.3033091464062</v>
+      </c>
+      <c r="E59" t="n">
+        <v>98.89407816142281</v>
+      </c>
+      <c r="F59" t="n">
+        <v>36.08129694402608</v>
+      </c>
+      <c r="G59" t="n">
+        <v>767.027103144369</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>0.9075521971445194</v>
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>16.3047218475098</v>
+      </c>
+      <c r="C60" t="n">
+        <v>72.45707942731447</v>
+      </c>
+      <c r="D60" t="n">
+        <v>9.544423241223344</v>
+      </c>
+      <c r="E60" t="n">
+        <v>89.1492176702502</v>
+      </c>
+      <c r="F60" t="n">
+        <v>6.729777236643519</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1181.392525945287</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>0.3735349873633369</v>
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>32.48679279756966</v>
+      </c>
+      <c r="C61" t="n">
+        <v>69.60256729266973</v>
+      </c>
+      <c r="D61" t="n">
+        <v>72.21445529271037</v>
+      </c>
+      <c r="E61" t="n">
+        <v>57.25617083152866</v>
+      </c>
+      <c r="F61" t="n">
+        <v>99.49795823775548</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2261.164181815861</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>0.235260436065273</v>
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>87.28110902435505</v>
+      </c>
+      <c r="C62" t="n">
+        <v>87.58782263449018</v>
+      </c>
+      <c r="D62" t="n">
+        <v>43.66258859057076</v>
+      </c>
+      <c r="E62" t="n">
+        <v>59.93104806495167</v>
+      </c>
+      <c r="F62" t="n">
+        <v>93.74849922404104</v>
+      </c>
+      <c r="G62" t="n">
+        <v>7644.76229656681</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>0.6303604844960007</v>
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2.395111821931717</v>
+      </c>
+      <c r="C63" t="n">
+        <v>72.47367209337602</v>
+      </c>
+      <c r="D63" t="n">
+        <v>62.39646000054842</v>
+      </c>
+      <c r="E63" t="n">
+        <v>38.21417087058171</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2.3464696979003</v>
+      </c>
+      <c r="G63" t="n">
+        <v>173.5825488096477</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>0.567567050051347</v>
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>10.10549398161215</v>
+      </c>
+      <c r="C64" t="n">
+        <v>5.945662783286565</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.747605137259677</v>
+      </c>
+      <c r="E64" t="n">
+        <v>65.71531454336368</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2.668880302830345</v>
+      </c>
+      <c r="G64" t="n">
+        <v>60.0838594731977</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>0.5717419196529402</v>
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>96.48372065686738</v>
+      </c>
+      <c r="C65" t="n">
+        <v>64.54459618877928</v>
+      </c>
+      <c r="D65" t="n">
+        <v>33.0402535391999</v>
+      </c>
+      <c r="E65" t="n">
+        <v>46.24158608223976</v>
+      </c>
+      <c r="F65" t="n">
+        <v>57.50229105198444</v>
+      </c>
+      <c r="G65" t="n">
+        <v>6227.502788588487</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>0.3393180712691835</v>
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>22.84434705976488</v>
+      </c>
+      <c r="C66" t="n">
+        <v>7.638479944958487</v>
+      </c>
+      <c r="D66" t="n">
+        <v>66.59583471815603</v>
+      </c>
+      <c r="E66" t="n">
+        <v>51.44064997791211</v>
+      </c>
+      <c r="F66" t="n">
+        <v>86.71460228083779</v>
+      </c>
+      <c r="G66" t="n">
+        <v>174.4960868716854</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>0.9014268403875508</v>
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>82.7002499282237</v>
+      </c>
+      <c r="C67" t="n">
+        <v>47.33013983226242</v>
+      </c>
+      <c r="D67" t="n">
+        <v>6.304905646981185</v>
+      </c>
+      <c r="E67" t="n">
+        <v>50.13104429479925</v>
+      </c>
+      <c r="F67" t="n">
+        <v>84.38314745833439</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3914.214393265878</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>0.1280844654770482</v>
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>4.369027233069489</v>
+      </c>
+      <c r="C68" t="n">
+        <v>56.51351360088655</v>
+      </c>
+      <c r="D68" t="n">
+        <v>13.91539757547091</v>
+      </c>
+      <c r="E68" t="n">
+        <v>77.29105765089555</v>
+      </c>
+      <c r="F68" t="n">
+        <v>85.5955234461773</v>
+      </c>
+      <c r="G68" t="n">
+        <v>246.9090799587163</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>1.027466476657628</v>
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>28.54401111616702</v>
+      </c>
+      <c r="C69" t="n">
+        <v>14.13343445314949</v>
+      </c>
+      <c r="D69" t="n">
+        <v>50.46486616386755</v>
+      </c>
+      <c r="E69" t="n">
+        <v>42.2870520650406</v>
+      </c>
+      <c r="F69" t="n">
+        <v>81.12967874149982</v>
+      </c>
+      <c r="G69" t="n">
+        <v>403.4249101403169</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>0.2146339086719223</v>
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2.163973260524488</v>
+      </c>
+      <c r="C70" t="n">
+        <v>71.75233540420871</v>
+      </c>
+      <c r="D70" t="n">
+        <v>11.90104503308272</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2.057091225642427</v>
+      </c>
+      <c r="F70" t="n">
+        <v>20.0179955087706</v>
+      </c>
+      <c r="G70" t="n">
+        <v>155.2701351948922</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>0.9693595106970244</v>
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>63.45816105088014</v>
+      </c>
+      <c r="C71" t="n">
+        <v>44.16675461692285</v>
+      </c>
+      <c r="D71" t="n">
+        <v>9.398654205336076</v>
+      </c>
+      <c r="E71" t="n">
+        <v>24.04643694375118</v>
+      </c>
+      <c r="F71" t="n">
+        <v>24.11126021857135</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2802.741027575394</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>0.1699959851200292</v>
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>87.61615123655045</v>
+      </c>
+      <c r="C72" t="n">
+        <v>92.4338815025246</v>
+      </c>
+      <c r="D72" t="n">
+        <v>31.35101115636553</v>
+      </c>
+      <c r="E72" t="n">
+        <v>21.67960191675059</v>
+      </c>
+      <c r="F72" t="n">
+        <v>74.66416863477686</v>
+      </c>
+      <c r="G72" t="n">
+        <v>8098.700941106578</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>0.2116337264785836</v>
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>49.50311928135149</v>
+      </c>
+      <c r="C73" t="n">
+        <v>80.03924216011366</v>
+      </c>
+      <c r="D73" t="n">
+        <v>64.18439491165846</v>
+      </c>
+      <c r="E73" t="n">
+        <v>25.50535140131802</v>
+      </c>
+      <c r="F73" t="n">
+        <v>90.08497788157257</v>
+      </c>
+      <c r="G73" t="n">
+        <v>3962.192151841084</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>0.5975196986834684</v>
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>36.08785524166458</v>
+      </c>
+      <c r="C74" t="n">
+        <v>97.71480959994553</v>
+      </c>
+      <c r="D74" t="n">
+        <v>21.57716337021235</v>
+      </c>
+      <c r="E74" t="n">
+        <v>49.57501454998405</v>
+      </c>
+      <c r="F74" t="n">
+        <v>68.99799217089114</v>
+      </c>
+      <c r="G74" t="n">
+        <v>3526.31790380965</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>0.1394660231804986</v>
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>71.41373850633794</v>
+      </c>
+      <c r="C75" t="n">
+        <v>96.06253128206646</v>
+      </c>
+      <c r="D75" t="n">
+        <v>55.34049742050355</v>
+      </c>
+      <c r="E75" t="n">
+        <v>40.11588037157726</v>
+      </c>
+      <c r="F75" t="n">
+        <v>54.28691680460604</v>
+      </c>
+      <c r="G75" t="n">
+        <v>6860.184489234402</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>0.4509831062487637</v>
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>29.26222285508344</v>
+      </c>
+      <c r="C76" t="n">
+        <v>47.38360242424736</v>
+      </c>
+      <c r="D76" t="n">
+        <v>31.48232043564438</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.051816311340092</v>
+      </c>
+      <c r="F76" t="n">
+        <v>97.16094772908102</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1386.549533814999</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>0.7771619991224016</v>
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>42.71499118264786</v>
+      </c>
+      <c r="C77" t="n">
+        <v>77.68098569244199</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.157883647316194</v>
+      </c>
+      <c r="E77" t="n">
+        <v>57.48108165830026</v>
+      </c>
+      <c r="F77" t="n">
+        <v>82.78268874779774</v>
+      </c>
+      <c r="G77" t="n">
+        <v>3318.142618912055</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>0.2433295856884365</v>
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>42.39590530549361</v>
+      </c>
+      <c r="C78" t="n">
+        <v>57.53503517377833</v>
+      </c>
+      <c r="D78" t="n">
+        <v>86.68000703071132</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4.538427329814954</v>
+      </c>
+      <c r="F78" t="n">
+        <v>86.24256386521108</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2439.24990297575</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>0.187742861413315</v>
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>86.4155561586598</v>
+      </c>
+      <c r="C79" t="n">
+        <v>69.65930361193577</v>
+      </c>
+      <c r="D79" t="n">
+        <v>51.3721292364058</v>
+      </c>
+      <c r="E79" t="n">
+        <v>23.9157502592773</v>
+      </c>
+      <c r="F79" t="n">
+        <v>42.90038116314129</v>
+      </c>
+      <c r="G79" t="n">
+        <v>6019.647463250369</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>0.5610384138050076</v>
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>16.25739850450751</v>
+      </c>
+      <c r="C80" t="n">
+        <v>77.23526579646979</v>
+      </c>
+      <c r="D80" t="n">
+        <v>33.89621856014262</v>
+      </c>
+      <c r="E80" t="n">
+        <v>27.20418772896185</v>
+      </c>
+      <c r="F80" t="n">
+        <v>38.77078962888289</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1255.644494654768</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>0.8813157634096898</v>
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>43.99897483210901</v>
+      </c>
+      <c r="C81" t="n">
+        <v>13.4777139003016</v>
+      </c>
+      <c r="D81" t="n">
+        <v>56.11383778858382</v>
+      </c>
+      <c r="E81" t="n">
+        <v>56.2969164314188</v>
+      </c>
+      <c r="F81" t="n">
+        <v>77.15272542123121</v>
+      </c>
+      <c r="G81" t="n">
+        <v>593.0055946937359</v>
       </c>
     </row>
   </sheetData>

--- a/random_numbers.xlsx
+++ b/random_numbers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,22 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Column 3 (Range 0.0-100.0)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Column 4 (Range 0.0-100.0)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Column 5 (Range 0.0-100.0)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Column 1 (Range 0.0-100.0) Column 2 (Range 0.0-100.0) Multiply</t>
+          <t>Column 1 (Range 0.0-100.0) Column 2 (Range 0.0-100.0) Add</t>
         </is>
       </c>
     </row>
@@ -475,22 +460,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>47.61332661980811</v>
+        <v>51.60210008280054</v>
       </c>
       <c r="C2" t="n">
-        <v>78.97499037187032</v>
+        <v>76.47923840100022</v>
       </c>
       <c r="D2" t="n">
-        <v>19.33057755805721</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10.92408732281032</v>
-      </c>
-      <c r="F2" t="n">
-        <v>94.37126513064185</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3760.262011372062</v>
+        <v>128.0813384838007</v>
       </c>
     </row>
     <row r="3">
@@ -498,22 +474,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>83.31656858321847</v>
+        <v>36.46497268812495</v>
       </c>
       <c r="C3" t="n">
-        <v>32.86791687493243</v>
+        <v>56.53160292621995</v>
       </c>
       <c r="D3" t="n">
-        <v>71.71243751990734</v>
-      </c>
-      <c r="E3" t="n">
-        <v>18.28289942953656</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4.993665755309262</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2738.442050497831</v>
+        <v>92.99657561434489</v>
       </c>
     </row>
     <row r="4">
@@ -521,22 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39.37481865572192</v>
+        <v>59.76022773206759</v>
       </c>
       <c r="C4" t="n">
-        <v>9.646331162192123</v>
+        <v>31.03739077753287</v>
       </c>
       <c r="D4" t="n">
-        <v>61.30062992428722</v>
-      </c>
-      <c r="E4" t="n">
-        <v>96.73061267932849</v>
-      </c>
-      <c r="F4" t="n">
-        <v>65.36890717743631</v>
-      </c>
-      <c r="G4" t="n">
-        <v>379.8225402043541</v>
+        <v>90.79761850960045</v>
       </c>
     </row>
     <row r="5">
@@ -544,22 +502,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>59.70263972171336</v>
+        <v>71.94399686406983</v>
       </c>
       <c r="C5" t="n">
-        <v>1.286212648014884</v>
+        <v>70.09614699626928</v>
       </c>
       <c r="D5" t="n">
-        <v>22.80431374846377</v>
-      </c>
-      <c r="E5" t="n">
-        <v>68.40315473995447</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5.195348724929849</v>
-      </c>
-      <c r="G5" t="n">
-        <v>76.79029032994353</v>
+        <v>142.0401438603391</v>
       </c>
     </row>
     <row r="6">
@@ -567,22 +516,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47.35670845008534</v>
+        <v>65.14802006874085</v>
       </c>
       <c r="C6" t="n">
-        <v>25.34359111911336</v>
+        <v>73.44677535683056</v>
       </c>
       <c r="D6" t="n">
-        <v>82.89791742888664</v>
-      </c>
-      <c r="E6" t="n">
-        <v>26.06893302224372</v>
-      </c>
-      <c r="F6" t="n">
-        <v>78.02070121727498</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1200.189055706024</v>
+        <v>138.5947954255714</v>
       </c>
     </row>
     <row r="7">
@@ -590,22 +530,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64.77092834786897</v>
+        <v>45.92842024053072</v>
       </c>
       <c r="C7" t="n">
-        <v>45.0775810779033</v>
+        <v>69.86615718709514</v>
       </c>
       <c r="D7" t="n">
-        <v>88.86511646976261</v>
-      </c>
-      <c r="E7" t="n">
-        <v>36.42481537795679</v>
-      </c>
-      <c r="F7" t="n">
-        <v>88.07613864611609</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2919.716774092129</v>
+        <v>115.7945774276259</v>
       </c>
     </row>
     <row r="8">
@@ -613,22 +544,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18.06107972385916</v>
+        <v>8.605384248747827</v>
       </c>
       <c r="C8" t="n">
-        <v>88.22827186595215</v>
+        <v>96.27970709585971</v>
       </c>
       <c r="D8" t="n">
-        <v>67.73231475190147</v>
-      </c>
-      <c r="E8" t="n">
-        <v>99.19650041514406</v>
-      </c>
-      <c r="F8" t="n">
-        <v>39.31809541955652</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1593.497852069282</v>
+        <v>104.8850913446075</v>
       </c>
     </row>
     <row r="9">
@@ -636,22 +558,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>38.77690850441466</v>
+        <v>32.68317734365571</v>
       </c>
       <c r="C9" t="n">
-        <v>82.83906436475235</v>
+        <v>64.51415797895682</v>
       </c>
       <c r="D9" t="n">
-        <v>36.85624420807244</v>
-      </c>
-      <c r="E9" t="n">
-        <v>39.9292913819817</v>
-      </c>
-      <c r="F9" t="n">
-        <v>89.54018062710372</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3212.242819463318</v>
+        <v>97.19733532261253</v>
       </c>
     </row>
     <row r="10">
@@ -659,22 +572,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>53.54800837544581</v>
+        <v>68.42286687608728</v>
       </c>
       <c r="C10" t="n">
-        <v>28.2484746375308</v>
+        <v>98.37802029799984</v>
       </c>
       <c r="D10" t="n">
-        <v>14.60971508742244</v>
-      </c>
-      <c r="E10" t="n">
-        <v>36.91912746830417</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.787009867985514</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1512.649556484068</v>
+        <v>166.8008871740871</v>
       </c>
     </row>
     <row r="11">
@@ -682,22 +586,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.224837594896827</v>
+        <v>52.58626900055828</v>
       </c>
       <c r="C11" t="n">
-        <v>20.50749869149228</v>
+        <v>93.80406851223442</v>
       </c>
       <c r="D11" t="n">
-        <v>96.09596744774545</v>
-      </c>
-      <c r="E11" t="n">
-        <v>93.03642676856893</v>
-      </c>
-      <c r="F11" t="n">
-        <v>28.97327068749513</v>
-      </c>
-      <c r="G11" t="n">
-        <v>148.1633475235909</v>
+        <v>146.3903375127927</v>
       </c>
     </row>
     <row r="12">
@@ -705,22 +600,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>84.05189705013166</v>
+        <v>69.14062925572276</v>
       </c>
       <c r="C12" t="n">
-        <v>38.46268961878607</v>
+        <v>72.20952399177311</v>
       </c>
       <c r="D12" t="n">
-        <v>82.84473330091144</v>
-      </c>
-      <c r="E12" t="n">
-        <v>69.74368810077158</v>
-      </c>
-      <c r="F12" t="n">
-        <v>78.35476488898813</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3232.862028109374</v>
+        <v>141.3501532474959</v>
       </c>
     </row>
     <row r="13">
@@ -728,22 +614,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>65.76730894373148</v>
+        <v>65.46756379883475</v>
       </c>
       <c r="C13" t="n">
-        <v>12.39191987177696</v>
+        <v>32.01347170742983</v>
       </c>
       <c r="D13" t="n">
-        <v>22.37717598366828</v>
-      </c>
-      <c r="E13" t="n">
-        <v>44.11027568486511</v>
-      </c>
-      <c r="F13" t="n">
-        <v>67.46651669903872</v>
-      </c>
-      <c r="G13" t="n">
-        <v>814.9832226131206</v>
+        <v>97.48103550626458</v>
       </c>
     </row>
     <row r="14">
@@ -751,22 +628,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>53.47478937541018</v>
+        <v>2.349692467515885</v>
       </c>
       <c r="C14" t="n">
-        <v>20.4355106894755</v>
+        <v>37.0555654249614</v>
       </c>
       <c r="D14" t="n">
-        <v>30.50689891336842</v>
-      </c>
-      <c r="E14" t="n">
-        <v>86.75227416106934</v>
-      </c>
-      <c r="F14" t="n">
-        <v>83.60347222646939</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1092.784629898646</v>
+        <v>39.40525789247729</v>
       </c>
     </row>
     <row r="15">
@@ -774,22 +642,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>89.45685386394811</v>
+        <v>63.52944498646844</v>
       </c>
       <c r="C15" t="n">
-        <v>8.158483077164414</v>
+        <v>4.020964494293078</v>
       </c>
       <c r="D15" t="n">
-        <v>71.26617590704629</v>
-      </c>
-      <c r="E15" t="n">
-        <v>92.60784269825821</v>
-      </c>
-      <c r="F15" t="n">
-        <v>60.25630926099014</v>
-      </c>
-      <c r="G15" t="n">
-        <v>729.8322283853906</v>
+        <v>67.55040948076152</v>
       </c>
     </row>
     <row r="16">
@@ -797,22 +656,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>54.29005032942575</v>
+        <v>75.695346683759</v>
       </c>
       <c r="C16" t="n">
-        <v>86.52863158403885</v>
+        <v>29.52629617539184</v>
       </c>
       <c r="D16" t="n">
-        <v>70.71442043880576</v>
-      </c>
-      <c r="E16" t="n">
-        <v>95.76597548122653</v>
-      </c>
-      <c r="F16" t="n">
-        <v>54.56873559860215</v>
-      </c>
-      <c r="G16" t="n">
-        <v>4697.643763633807</v>
+        <v>105.2216428591508</v>
       </c>
     </row>
     <row r="17">
@@ -820,22 +670,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>61.0866707782091</v>
+        <v>44.18911418205293</v>
       </c>
       <c r="C17" t="n">
-        <v>76.22383711748651</v>
+        <v>85.77090778498551</v>
       </c>
       <c r="D17" t="n">
-        <v>91.56815503621775</v>
-      </c>
-      <c r="E17" t="n">
-        <v>20.81743395117331</v>
-      </c>
-      <c r="F17" t="n">
-        <v>11.9362582878927</v>
-      </c>
-      <c r="G17" t="n">
-        <v>4656.260443447733</v>
+        <v>129.9600219670384</v>
       </c>
     </row>
     <row r="18">
@@ -843,22 +684,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7.050628605893483</v>
+        <v>52.63209897343096</v>
       </c>
       <c r="C18" t="n">
-        <v>79.96094703142798</v>
+        <v>17.77863184683313</v>
       </c>
       <c r="D18" t="n">
-        <v>53.22615047319985</v>
-      </c>
-      <c r="E18" t="n">
-        <v>57.90076167243361</v>
-      </c>
-      <c r="F18" t="n">
-        <v>46.30446432070877</v>
-      </c>
-      <c r="G18" t="n">
-        <v>563.7749404941196</v>
+        <v>70.41073082026409</v>
       </c>
     </row>
     <row r="19">
@@ -866,22 +698,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>74.83030785324883</v>
+        <v>32.84210866831171</v>
       </c>
       <c r="C19" t="n">
-        <v>32.98265016187302</v>
+        <v>55.98014722550193</v>
       </c>
       <c r="D19" t="n">
-        <v>82.34338303217483</v>
-      </c>
-      <c r="E19" t="n">
-        <v>92.67098023489848</v>
-      </c>
-      <c r="F19" t="n">
-        <v>69.16421860541072</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2468.101865428966</v>
+        <v>88.82225589381363</v>
       </c>
     </row>
     <row r="20">
@@ -889,22 +712,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7.81783874701688</v>
+        <v>25.12704709827456</v>
       </c>
       <c r="C20" t="n">
-        <v>70.05565481694141</v>
+        <v>85.41443815057312</v>
       </c>
       <c r="D20" t="n">
-        <v>20.08881109267181</v>
-      </c>
-      <c r="E20" t="n">
-        <v>16.83673143255603</v>
-      </c>
-      <c r="F20" t="n">
-        <v>57.35687682157651</v>
-      </c>
-      <c r="G20" t="n">
-        <v>547.6838126755243</v>
+        <v>110.5414852488477</v>
       </c>
     </row>
     <row r="21">
@@ -912,22 +726,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>16.95932181109732</v>
+        <v>98.11469598464998</v>
       </c>
       <c r="C21" t="n">
-        <v>30.72032154675446</v>
+        <v>26.22347349221373</v>
       </c>
       <c r="D21" t="n">
-        <v>57.39446155828533</v>
-      </c>
-      <c r="E21" t="n">
-        <v>93.98316668216849</v>
-      </c>
-      <c r="F21" t="n">
-        <v>83.10066243334842</v>
-      </c>
-      <c r="G21" t="n">
-        <v>520.9958192517958</v>
+        <v>124.3381694768637</v>
       </c>
     </row>
     <row r="22">
@@ -935,22 +740,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>14.37375479218834</v>
+        <v>31.01116566050123</v>
       </c>
       <c r="C22" t="n">
-        <v>11.65645745517895</v>
+        <v>26.29626495575879</v>
       </c>
       <c r="D22" t="n">
-        <v>95.53774543380349</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2.797393281970051</v>
-      </c>
-      <c r="F22" t="n">
-        <v>80.0953494706382</v>
-      </c>
-      <c r="G22" t="n">
-        <v>167.5470612063179</v>
+        <v>57.30743061626001</v>
       </c>
     </row>
     <row r="23">
@@ -958,22 +754,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.205449440124489</v>
+        <v>40.00276940616091</v>
       </c>
       <c r="C23" t="n">
-        <v>45.76487583261687</v>
+        <v>21.00928819410296</v>
       </c>
       <c r="D23" t="n">
-        <v>77.42270265812398</v>
-      </c>
-      <c r="E23" t="n">
-        <v>27.66616847828699</v>
-      </c>
-      <c r="F23" t="n">
-        <v>81.03898974378203</v>
-      </c>
-      <c r="G23" t="n">
-        <v>283.9916231128791</v>
+        <v>61.01205760026387</v>
       </c>
     </row>
     <row r="24">
@@ -981,22 +768,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>65.18076602271333</v>
+        <v>6.806486117855037</v>
       </c>
       <c r="C24" t="n">
-        <v>23.11922866894405</v>
+        <v>99.28932568194085</v>
       </c>
       <c r="D24" t="n">
-        <v>14.72734190356526</v>
-      </c>
-      <c r="E24" t="n">
-        <v>39.65455103652411</v>
-      </c>
-      <c r="F24" t="n">
-        <v>93.85110922551011</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1506.929034496048</v>
+        <v>106.0958117997959</v>
       </c>
     </row>
     <row r="25">
@@ -1004,22 +782,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>91.62009213592401</v>
+        <v>94.33865189956897</v>
       </c>
       <c r="C25" t="n">
-        <v>18.69095057509934</v>
+        <v>88.97151736090765</v>
       </c>
       <c r="D25" t="n">
-        <v>90.31186609148361</v>
-      </c>
-      <c r="E25" t="n">
-        <v>36.72892647340373</v>
-      </c>
-      <c r="F25" t="n">
-        <v>18.14245754712752</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1712.466613798603</v>
+        <v>183.3101692604766</v>
       </c>
     </row>
     <row r="26">
@@ -1027,22 +796,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>62.63042624328005</v>
+        <v>56.76484285800692</v>
       </c>
       <c r="C26" t="n">
-        <v>85.12899533649768</v>
+        <v>1.669651067914912</v>
       </c>
       <c r="D26" t="n">
-        <v>48.9708383960488</v>
-      </c>
-      <c r="E26" t="n">
-        <v>41.81774270231317</v>
-      </c>
-      <c r="F26" t="n">
-        <v>65.32384526382404</v>
-      </c>
-      <c r="G26" t="n">
-        <v>5331.66526358705</v>
+        <v>58.43449392592183</v>
       </c>
     </row>
     <row r="27">
@@ -1050,22 +810,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>47.20606319306953</v>
+        <v>26.37929134878591</v>
       </c>
       <c r="C27" t="n">
-        <v>36.3697960086165</v>
+        <v>9.829218240368764</v>
       </c>
       <c r="D27" t="n">
-        <v>47.6942262974127</v>
-      </c>
-      <c r="E27" t="n">
-        <v>98.51359134676224</v>
-      </c>
-      <c r="F27" t="n">
-        <v>82.95910091357021</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1716.874888701798</v>
+        <v>36.20850958915467</v>
       </c>
     </row>
     <row r="28">
@@ -1073,22 +824,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>10.0624771261444</v>
+        <v>50.85140544570012</v>
       </c>
       <c r="C28" t="n">
-        <v>80.10455766706826</v>
+        <v>40.75643991413228</v>
       </c>
       <c r="D28" t="n">
-        <v>48.45176928156108</v>
-      </c>
-      <c r="E28" t="n">
-        <v>88.34709882443671</v>
-      </c>
-      <c r="F28" t="n">
-        <v>11.22220158829614</v>
-      </c>
-      <c r="G28" t="n">
-        <v>806.0502792247893</v>
+        <v>91.6078453598324</v>
       </c>
     </row>
     <row r="29">
@@ -1096,22 +838,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>24.97328079879581</v>
+        <v>8.617224998318051</v>
       </c>
       <c r="C29" t="n">
-        <v>79.76536735118169</v>
+        <v>67.19269330225342</v>
       </c>
       <c r="D29" t="n">
-        <v>36.6645692847603</v>
-      </c>
-      <c r="E29" t="n">
-        <v>59.87476365532098</v>
-      </c>
-      <c r="F29" t="n">
-        <v>23.99164489550027</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1992.00291688016</v>
+        <v>75.80991830057147</v>
       </c>
     </row>
     <row r="30">
@@ -1119,22 +852,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>81.33651671790861</v>
+        <v>42.56969859837595</v>
       </c>
       <c r="C30" t="n">
-        <v>13.95080669205939</v>
+        <v>52.78693575808402</v>
       </c>
       <c r="D30" t="n">
-        <v>2.804488402039396</v>
-      </c>
-      <c r="E30" t="n">
-        <v>38.29055663283031</v>
-      </c>
-      <c r="F30" t="n">
-        <v>7.597516682175797</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1134.710021737</v>
+        <v>95.35663435645998</v>
       </c>
     </row>
     <row r="31">
@@ -1142,22 +866,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>38.47670173099178</v>
+        <v>96.21707120206513</v>
       </c>
       <c r="C31" t="n">
-        <v>79.89708841385654</v>
+        <v>67.94505833557368</v>
       </c>
       <c r="D31" t="n">
-        <v>96.41405531545902</v>
-      </c>
-      <c r="E31" t="n">
-        <v>73.6411476703833</v>
-      </c>
-      <c r="F31" t="n">
-        <v>64.37437846188622</v>
-      </c>
-      <c r="G31" t="n">
-        <v>3074.176440074637</v>
+        <v>164.1621295376388</v>
       </c>
     </row>
     <row r="32">
@@ -1165,22 +880,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>85.08814094260039</v>
+        <v>82.50323192246695</v>
       </c>
       <c r="C32" t="n">
-        <v>32.04958544036004</v>
+        <v>30.95216028311433</v>
       </c>
       <c r="D32" t="n">
-        <v>37.09302433034863</v>
-      </c>
-      <c r="E32" t="n">
-        <v>92.79494745629468</v>
-      </c>
-      <c r="F32" t="n">
-        <v>74.97170844721134</v>
-      </c>
-      <c r="G32" t="n">
-        <v>2727.039643101269</v>
+        <v>113.4553922055813</v>
       </c>
     </row>
     <row r="33">
@@ -1188,22 +894,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>84.21211047931531</v>
+        <v>12.30102384083863</v>
       </c>
       <c r="C33" t="n">
-        <v>41.26450696523612</v>
+        <v>12.85088597847763</v>
       </c>
       <c r="D33" t="n">
-        <v>9.405103128346903</v>
-      </c>
-      <c r="E33" t="n">
-        <v>39.91253954085785</v>
-      </c>
-      <c r="F33" t="n">
-        <v>46.10761917828368</v>
-      </c>
-      <c r="G33" t="n">
-        <v>3474.97121943094</v>
+        <v>25.15190981931627</v>
       </c>
     </row>
     <row r="34">
@@ -1211,22 +908,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.04984416191571</v>
+        <v>37.5728254606017</v>
       </c>
       <c r="C34" t="n">
-        <v>14.04881017331711</v>
+        <v>93.15016771587547</v>
       </c>
       <c r="D34" t="n">
-        <v>23.18409512200318</v>
-      </c>
-      <c r="E34" t="n">
-        <v>59.20790744619872</v>
-      </c>
-      <c r="F34" t="n">
-        <v>57.62625924312695</v>
-      </c>
-      <c r="G34" t="n">
-        <v>169.2859732488072</v>
+        <v>130.7229931764772</v>
       </c>
     </row>
     <row r="35">
@@ -1234,22 +922,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>48.37380897637513</v>
+        <v>54.86513027259616</v>
       </c>
       <c r="C35" t="n">
-        <v>60.96777820136412</v>
+        <v>96.55337107998943</v>
       </c>
       <c r="D35" t="n">
-        <v>13.56564612205883</v>
-      </c>
-      <c r="E35" t="n">
-        <v>89.01360549495779</v>
-      </c>
-      <c r="F35" t="n">
-        <v>59.18100682007247</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2949.243656426795</v>
+        <v>151.4185013525856</v>
       </c>
     </row>
     <row r="36">
@@ -1257,22 +936,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.1145505145888</v>
+        <v>81.70065952237118</v>
       </c>
       <c r="C36" t="n">
-        <v>88.87883139119863</v>
+        <v>3.732405341812739</v>
       </c>
       <c r="D36" t="n">
-        <v>65.54316736603157</v>
-      </c>
-      <c r="E36" t="n">
-        <v>54.47387364160726</v>
-      </c>
-      <c r="F36" t="n">
-        <v>82.04327439078615</v>
-      </c>
-      <c r="G36" t="n">
-        <v>454.5752728279062</v>
+        <v>85.43306486418392</v>
       </c>
     </row>
     <row r="37">
@@ -1280,22 +950,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>73.19431975981766</v>
+        <v>45.50343062103135</v>
       </c>
       <c r="C37" t="n">
-        <v>91.07404230194516</v>
+        <v>9.374597772674665</v>
       </c>
       <c r="D37" t="n">
-        <v>82.62830886996142</v>
-      </c>
-      <c r="E37" t="n">
-        <v>30.42458720190099</v>
-      </c>
-      <c r="F37" t="n">
-        <v>3.597049928319529</v>
-      </c>
-      <c r="G37" t="n">
-        <v>6666.102574067733</v>
+        <v>54.87802839370602</v>
       </c>
     </row>
     <row r="38">
@@ -1303,22 +964,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>69.83998553225454</v>
+        <v>80.95423264813901</v>
       </c>
       <c r="C38" t="n">
-        <v>13.75185125812857</v>
+        <v>66.06047283453181</v>
       </c>
       <c r="D38" t="n">
-        <v>99.72644542458575</v>
-      </c>
-      <c r="E38" t="n">
-        <v>28.90617574898523</v>
-      </c>
-      <c r="F38" t="n">
-        <v>99.72777777497382</v>
-      </c>
-      <c r="G38" t="n">
-        <v>960.4290929094157</v>
+        <v>147.0147054826708</v>
       </c>
     </row>
     <row r="39">
@@ -1326,22 +978,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>87.0242457189273</v>
+        <v>91.69405798024331</v>
       </c>
       <c r="C39" t="n">
-        <v>3.985460415477271</v>
+        <v>1.419911761866266</v>
       </c>
       <c r="D39" t="n">
-        <v>95.66125882386591</v>
-      </c>
-      <c r="E39" t="n">
-        <v>58.34502815626309</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1.924493231965019</v>
-      </c>
-      <c r="G39" t="n">
-        <v>346.8316864995521</v>
+        <v>93.11396974210957</v>
       </c>
     </row>
     <row r="40">
@@ -1349,22 +992,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>69.63607865979951</v>
+        <v>23.65346610737479</v>
       </c>
       <c r="C40" t="n">
-        <v>44.77330564196824</v>
+        <v>19.54608824647581</v>
       </c>
       <c r="D40" t="n">
-        <v>79.36572714480126</v>
-      </c>
-      <c r="E40" t="n">
-        <v>50.46524209612087</v>
-      </c>
-      <c r="F40" t="n">
-        <v>10.02997970305797</v>
-      </c>
-      <c r="G40" t="n">
-        <v>3117.837433543345</v>
+        <v>43.1995543538506</v>
       </c>
     </row>
     <row r="41">
@@ -1372,22 +1006,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>16.56649537733777</v>
+        <v>11.37293837660962</v>
       </c>
       <c r="C41" t="n">
-        <v>39.53457301878689</v>
+        <v>37.64446349969865</v>
       </c>
       <c r="D41" t="n">
-        <v>55.3116327281215</v>
-      </c>
-      <c r="E41" t="n">
-        <v>99.8345140989443</v>
-      </c>
-      <c r="F41" t="n">
-        <v>85.91742673314296</v>
-      </c>
-      <c r="G41" t="n">
-        <v>654.9493211607553</v>
+        <v>49.01740187630827</v>
       </c>
     </row>
     <row r="42">
@@ -1395,22 +1020,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>25.83803929483954</v>
+        <v>26.6035861802335</v>
       </c>
       <c r="C42" t="n">
-        <v>33.63039804623352</v>
+        <v>82.91304413860885</v>
       </c>
       <c r="D42" t="n">
-        <v>4.755069706844184</v>
-      </c>
-      <c r="E42" t="n">
-        <v>28.83692510271771</v>
-      </c>
-      <c r="F42" t="n">
-        <v>84.7062667969184</v>
-      </c>
-      <c r="G42" t="n">
-        <v>868.9435462196768</v>
+        <v>109.5166303188423</v>
       </c>
     </row>
     <row r="43">
@@ -1418,22 +1034,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9813300253829316</v>
+        <v>55.79446611187257</v>
       </c>
       <c r="C43" t="n">
-        <v>19.8549904256871</v>
+        <v>61.42166878388656</v>
       </c>
       <c r="D43" t="n">
-        <v>71.23637785457016</v>
-      </c>
-      <c r="E43" t="n">
-        <v>31.07226807849005</v>
-      </c>
-      <c r="F43" t="n">
-        <v>90.08665854651883</v>
-      </c>
-      <c r="G43" t="n">
-        <v>19.48429825841739</v>
+        <v>117.2161348957591</v>
       </c>
     </row>
     <row r="44">
@@ -1441,22 +1048,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>38.38866004886551</v>
+        <v>98.19114125120598</v>
       </c>
       <c r="C44" t="n">
-        <v>62.37161743242608</v>
+        <v>56.29326573300283</v>
       </c>
       <c r="D44" t="n">
-        <v>23.16753633876637</v>
-      </c>
-      <c r="E44" t="n">
-        <v>61.23619794853743</v>
-      </c>
-      <c r="F44" t="n">
-        <v>45.57184513654487</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2394.362818311299</v>
+        <v>154.4844069842088</v>
       </c>
     </row>
     <row r="45">
@@ -1464,22 +1062,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>7.453653829830243</v>
+        <v>26.19331943058687</v>
       </c>
       <c r="C45" t="n">
-        <v>31.08216775063183</v>
+        <v>49.87390565067099</v>
       </c>
       <c r="D45" t="n">
-        <v>16.93834586602166</v>
-      </c>
-      <c r="E45" t="n">
-        <v>64.15026843484029</v>
-      </c>
-      <c r="F45" t="n">
-        <v>10.76362953496227</v>
-      </c>
-      <c r="G45" t="n">
-        <v>231.675718693923</v>
+        <v>76.06722508125786</v>
       </c>
     </row>
     <row r="46">
@@ -1487,22 +1076,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>79.94169152206521</v>
+        <v>10.25793862493201</v>
       </c>
       <c r="C46" t="n">
-        <v>9.471871561721079</v>
+        <v>67.39383585860023</v>
       </c>
       <c r="D46" t="n">
-        <v>93.79145226789299</v>
-      </c>
-      <c r="E46" t="n">
-        <v>63.32137557835549</v>
-      </c>
-      <c r="F46" t="n">
-        <v>62.68822885082841</v>
-      </c>
-      <c r="G46" t="n">
-        <v>757.1974345237286</v>
+        <v>77.65177448353224</v>
       </c>
     </row>
     <row r="47">
@@ -1510,22 +1090,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>22.9578260688095</v>
+        <v>90.47332133474988</v>
       </c>
       <c r="C47" t="n">
-        <v>26.45424352274893</v>
+        <v>64.41726362642805</v>
       </c>
       <c r="D47" t="n">
-        <v>33.0328356112397</v>
-      </c>
-      <c r="E47" t="n">
-        <v>3.169306261774063</v>
-      </c>
-      <c r="F47" t="n">
-        <v>76.14069850187212</v>
-      </c>
-      <c r="G47" t="n">
-        <v>607.3319215772002</v>
+        <v>154.8905849611779</v>
       </c>
     </row>
     <row r="48">
@@ -1533,22 +1104,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>18.21491006171435</v>
+        <v>48.47219934897842</v>
       </c>
       <c r="C48" t="n">
-        <v>17.95684515967523</v>
+        <v>11.11803903636023</v>
       </c>
       <c r="D48" t="n">
-        <v>99.31860746940417</v>
-      </c>
-      <c r="E48" t="n">
-        <v>49.9909989012417</v>
-      </c>
-      <c r="F48" t="n">
-        <v>91.34608591285016</v>
-      </c>
-      <c r="G48" t="n">
-        <v>327.082319575615</v>
+        <v>59.59023838533865</v>
       </c>
     </row>
     <row r="49">
@@ -1556,22 +1118,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>30.89686021432895</v>
+        <v>95.00153159535039</v>
       </c>
       <c r="C49" t="n">
-        <v>44.51812595949048</v>
+        <v>57.54697566681116</v>
       </c>
       <c r="D49" t="n">
-        <v>23.0431931068935</v>
-      </c>
-      <c r="E49" t="n">
-        <v>6.404521466258418</v>
-      </c>
-      <c r="F49" t="n">
-        <v>72.69226312007686</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1375.470314774266</v>
+        <v>152.5485072621615</v>
       </c>
     </row>
     <row r="50">
@@ -1579,22 +1132,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>62.48499054748194</v>
+        <v>21.20265261307514</v>
       </c>
       <c r="C50" t="n">
-        <v>53.05365542865997</v>
+        <v>68.5630112249207</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9193612787037231</v>
-      </c>
-      <c r="E50" t="n">
-        <v>69.31886234345511</v>
-      </c>
-      <c r="F50" t="n">
-        <v>54.30474202314577</v>
-      </c>
-      <c r="G50" t="n">
-        <v>3315.057157969182</v>
+        <v>89.76566383799585</v>
       </c>
     </row>
     <row r="51">
@@ -1602,22 +1146,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>26.57951954689933</v>
+        <v>19.87038063112107</v>
       </c>
       <c r="C51" t="n">
-        <v>75.24975300810544</v>
+        <v>5.786417507493824</v>
       </c>
       <c r="D51" t="n">
-        <v>48.04829309375045</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.4071647374855769</v>
-      </c>
-      <c r="F51" t="n">
-        <v>99.32275350260583</v>
-      </c>
-      <c r="G51" t="n">
-        <v>2000.102280978286</v>
+        <v>25.65679813861489</v>
       </c>
     </row>
     <row r="52">
@@ -1625,22 +1160,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9.6615825491007</v>
+        <v>88.45692020769107</v>
       </c>
       <c r="C52" t="n">
-        <v>6.3985623779924</v>
+        <v>19.37948572548909</v>
       </c>
       <c r="D52" t="n">
-        <v>71.34198001874</v>
-      </c>
-      <c r="E52" t="n">
-        <v>71.43722460813824</v>
-      </c>
-      <c r="F52" t="n">
-        <v>48.22522349114866</v>
-      </c>
-      <c r="G52" t="n">
-        <v>61.82023861054365</v>
+        <v>107.8364059331802</v>
       </c>
     </row>
     <row r="53">
@@ -1648,22 +1174,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>96.79718823689501</v>
+        <v>45.59921421065224</v>
       </c>
       <c r="C53" t="n">
-        <v>65.26394664377089</v>
+        <v>9.702155695652104</v>
       </c>
       <c r="D53" t="n">
-        <v>21.21165785441251</v>
-      </c>
-      <c r="E53" t="n">
-        <v>11.18298397664188</v>
-      </c>
-      <c r="F53" t="n">
-        <v>17.45716586266366</v>
-      </c>
-      <c r="G53" t="n">
-        <v>6317.366528359764</v>
+        <v>55.30136990630434</v>
       </c>
     </row>
     <row r="54">
@@ -1671,22 +1188,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>70.58350923321449</v>
+        <v>27.46933388202791</v>
       </c>
       <c r="C54" t="n">
-        <v>82.92586290215122</v>
+        <v>27.98260564194777</v>
       </c>
       <c r="D54" t="n">
-        <v>35.77558517461136</v>
-      </c>
-      <c r="E54" t="n">
-        <v>10.58219732862956</v>
-      </c>
-      <c r="F54" t="n">
-        <v>57.44329659889714</v>
-      </c>
-      <c r="G54" t="n">
-        <v>5853.198409826269</v>
+        <v>55.45193952397568</v>
       </c>
     </row>
     <row r="55">
@@ -1694,22 +1202,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>54.89687591693191</v>
+        <v>50.75618016483315</v>
       </c>
       <c r="C55" t="n">
-        <v>22.21498875409245</v>
+        <v>57.16552811861864</v>
       </c>
       <c r="D55" t="n">
-        <v>42.98879082119687</v>
-      </c>
-      <c r="E55" t="n">
-        <v>81.46544935239201</v>
-      </c>
-      <c r="F55" t="n">
-        <v>75.8551013022973</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1219.533481129451</v>
+        <v>107.9217082834518</v>
       </c>
     </row>
     <row r="56">
@@ -1717,22 +1216,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9.038557143624438</v>
+        <v>73.66855222507247</v>
       </c>
       <c r="C56" t="n">
-        <v>18.1298297814721</v>
+        <v>97.30516389241203</v>
       </c>
       <c r="D56" t="n">
-        <v>85.32837518446462</v>
-      </c>
-      <c r="E56" t="n">
-        <v>39.57258007272812</v>
-      </c>
-      <c r="F56" t="n">
-        <v>43.99912108674562</v>
-      </c>
-      <c r="G56" t="n">
-        <v>163.8675024840197</v>
+        <v>170.9737161174845</v>
       </c>
     </row>
     <row r="57">
@@ -1740,22 +1230,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>14.42122849002457</v>
+        <v>16.00727934633166</v>
       </c>
       <c r="C57" t="n">
-        <v>10.84371823731242</v>
+        <v>61.82899314397593</v>
       </c>
       <c r="D57" t="n">
-        <v>90.72893774227418</v>
-      </c>
-      <c r="E57" t="n">
-        <v>2.700207965900281</v>
-      </c>
-      <c r="F57" t="n">
-        <v>99.65417960420643</v>
-      </c>
-      <c r="G57" t="n">
-        <v>156.3797383817289</v>
+        <v>77.83627249030759</v>
       </c>
     </row>
     <row r="58">
@@ -1763,22 +1244,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>25.26649937446359</v>
+        <v>45.98813831533523</v>
       </c>
       <c r="C58" t="n">
-        <v>81.34041091731535</v>
+        <v>75.48585713941939</v>
       </c>
       <c r="D58" t="n">
-        <v>39.17171536898015</v>
-      </c>
-      <c r="E58" t="n">
-        <v>18.45632608645666</v>
-      </c>
-      <c r="F58" t="n">
-        <v>97.69660230249573</v>
-      </c>
-      <c r="G58" t="n">
-        <v>2055.18744156096</v>
+        <v>121.4739954547546</v>
       </c>
     </row>
     <row r="59">
@@ -1786,22 +1258,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>25.85690179679346</v>
+        <v>97.3019696186854</v>
       </c>
       <c r="C59" t="n">
-        <v>29.6643081670167</v>
+        <v>23.33804694910227</v>
       </c>
       <c r="D59" t="n">
-        <v>45.3033091464062</v>
-      </c>
-      <c r="E59" t="n">
-        <v>98.89407816142281</v>
-      </c>
-      <c r="F59" t="n">
-        <v>36.08129694402608</v>
-      </c>
-      <c r="G59" t="n">
-        <v>767.027103144369</v>
+        <v>120.6400165677877</v>
       </c>
     </row>
     <row r="60">
@@ -1809,22 +1272,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>16.3047218475098</v>
+        <v>71.19993206793535</v>
       </c>
       <c r="C60" t="n">
-        <v>72.45707942731447</v>
+        <v>36.44119422079055</v>
       </c>
       <c r="D60" t="n">
-        <v>9.544423241223344</v>
-      </c>
-      <c r="E60" t="n">
-        <v>89.1492176702502</v>
-      </c>
-      <c r="F60" t="n">
-        <v>6.729777236643519</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1181.392525945287</v>
+        <v>107.6411262887259</v>
       </c>
     </row>
     <row r="61">
@@ -1832,22 +1286,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>32.48679279756966</v>
+        <v>60.86905019185895</v>
       </c>
       <c r="C61" t="n">
-        <v>69.60256729266973</v>
+        <v>32.94741848703386</v>
       </c>
       <c r="D61" t="n">
-        <v>72.21445529271037</v>
-      </c>
-      <c r="E61" t="n">
-        <v>57.25617083152866</v>
-      </c>
-      <c r="F61" t="n">
-        <v>99.49795823775548</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2261.164181815861</v>
+        <v>93.81646867889282</v>
       </c>
     </row>
     <row r="62">
@@ -1855,22 +1300,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>87.28110902435505</v>
+        <v>54.92892880211253</v>
       </c>
       <c r="C62" t="n">
-        <v>87.58782263449018</v>
+        <v>37.65820230400978</v>
       </c>
       <c r="D62" t="n">
-        <v>43.66258859057076</v>
-      </c>
-      <c r="E62" t="n">
-        <v>59.93104806495167</v>
-      </c>
-      <c r="F62" t="n">
-        <v>93.74849922404104</v>
-      </c>
-      <c r="G62" t="n">
-        <v>7644.76229656681</v>
+        <v>92.58713110612231</v>
       </c>
     </row>
     <row r="63">
@@ -1878,22 +1314,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2.395111821931717</v>
+        <v>55.10499381022681</v>
       </c>
       <c r="C63" t="n">
-        <v>72.47367209337602</v>
+        <v>85.77827446098676</v>
       </c>
       <c r="D63" t="n">
-        <v>62.39646000054842</v>
-      </c>
-      <c r="E63" t="n">
-        <v>38.21417087058171</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2.3464696979003</v>
-      </c>
-      <c r="G63" t="n">
-        <v>173.5825488096477</v>
+        <v>140.8832682712136</v>
       </c>
     </row>
     <row r="64">
@@ -1901,22 +1328,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>10.10549398161215</v>
+        <v>29.72269072274504</v>
       </c>
       <c r="C64" t="n">
-        <v>5.945662783286565</v>
+        <v>69.48146153263292</v>
       </c>
       <c r="D64" t="n">
-        <v>0.747605137259677</v>
-      </c>
-      <c r="E64" t="n">
-        <v>65.71531454336368</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2.668880302830345</v>
-      </c>
-      <c r="G64" t="n">
-        <v>60.0838594731977</v>
+        <v>99.20415225537796</v>
       </c>
     </row>
     <row r="65">
@@ -1924,22 +1342,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>96.48372065686738</v>
+        <v>75.20241557652356</v>
       </c>
       <c r="C65" t="n">
-        <v>64.54459618877928</v>
+        <v>51.62919044511771</v>
       </c>
       <c r="D65" t="n">
-        <v>33.0402535391999</v>
-      </c>
-      <c r="E65" t="n">
-        <v>46.24158608223976</v>
-      </c>
-      <c r="F65" t="n">
-        <v>57.50229105198444</v>
-      </c>
-      <c r="G65" t="n">
-        <v>6227.502788588487</v>
+        <v>126.8316060216413</v>
       </c>
     </row>
     <row r="66">
@@ -1947,22 +1356,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>22.84434705976488</v>
+        <v>90.87569552351053</v>
       </c>
       <c r="C66" t="n">
-        <v>7.638479944958487</v>
+        <v>21.14257225516314</v>
       </c>
       <c r="D66" t="n">
-        <v>66.59583471815603</v>
-      </c>
-      <c r="E66" t="n">
-        <v>51.44064997791211</v>
-      </c>
-      <c r="F66" t="n">
-        <v>86.71460228083779</v>
-      </c>
-      <c r="G66" t="n">
-        <v>174.4960868716854</v>
+        <v>112.0182677786737</v>
       </c>
     </row>
     <row r="67">
@@ -1970,22 +1370,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>82.7002499282237</v>
+        <v>96.33495611857856</v>
       </c>
       <c r="C67" t="n">
-        <v>47.33013983226242</v>
+        <v>6.927521910998258</v>
       </c>
       <c r="D67" t="n">
-        <v>6.304905646981185</v>
-      </c>
-      <c r="E67" t="n">
-        <v>50.13104429479925</v>
-      </c>
-      <c r="F67" t="n">
-        <v>84.38314745833439</v>
-      </c>
-      <c r="G67" t="n">
-        <v>3914.214393265878</v>
+        <v>103.2624780295768</v>
       </c>
     </row>
     <row r="68">
@@ -1993,22 +1384,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.369027233069489</v>
+        <v>73.34979359195563</v>
       </c>
       <c r="C68" t="n">
-        <v>56.51351360088655</v>
+        <v>4.672322259479477</v>
       </c>
       <c r="D68" t="n">
-        <v>13.91539757547091</v>
-      </c>
-      <c r="E68" t="n">
-        <v>77.29105765089555</v>
-      </c>
-      <c r="F68" t="n">
-        <v>85.5955234461773</v>
-      </c>
-      <c r="G68" t="n">
-        <v>246.9090799587163</v>
+        <v>78.0221158514351</v>
       </c>
     </row>
     <row r="69">
@@ -2016,22 +1398,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>28.54401111616702</v>
+        <v>35.6728085626852</v>
       </c>
       <c r="C69" t="n">
-        <v>14.13343445314949</v>
+        <v>75.10782756032671</v>
       </c>
       <c r="D69" t="n">
-        <v>50.46486616386755</v>
-      </c>
-      <c r="E69" t="n">
-        <v>42.2870520650406</v>
-      </c>
-      <c r="F69" t="n">
-        <v>81.12967874149982</v>
-      </c>
-      <c r="G69" t="n">
-        <v>403.4249101403169</v>
+        <v>110.7806361230119</v>
       </c>
     </row>
     <row r="70">
@@ -2039,22 +1412,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2.163973260524488</v>
+        <v>3.08863975800171</v>
       </c>
       <c r="C70" t="n">
-        <v>71.75233540420871</v>
+        <v>98.75030913895182</v>
       </c>
       <c r="D70" t="n">
-        <v>11.90104503308272</v>
-      </c>
-      <c r="E70" t="n">
-        <v>2.057091225642427</v>
-      </c>
-      <c r="F70" t="n">
-        <v>20.0179955087706</v>
-      </c>
-      <c r="G70" t="n">
-        <v>155.2701351948922</v>
+        <v>101.8389488969535</v>
       </c>
     </row>
     <row r="71">
@@ -2062,22 +1426,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>63.45816105088014</v>
+        <v>12.48637900366889</v>
       </c>
       <c r="C71" t="n">
-        <v>44.16675461692285</v>
+        <v>31.76785217199599</v>
       </c>
       <c r="D71" t="n">
-        <v>9.398654205336076</v>
-      </c>
-      <c r="E71" t="n">
-        <v>24.04643694375118</v>
-      </c>
-      <c r="F71" t="n">
-        <v>24.11126021857135</v>
-      </c>
-      <c r="G71" t="n">
-        <v>2802.741027575394</v>
+        <v>44.25423117566488</v>
       </c>
     </row>
     <row r="72">
@@ -2085,22 +1440,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>87.61615123655045</v>
+        <v>86.99454845644514</v>
       </c>
       <c r="C72" t="n">
-        <v>92.4338815025246</v>
+        <v>77.20820839398363</v>
       </c>
       <c r="D72" t="n">
-        <v>31.35101115636553</v>
-      </c>
-      <c r="E72" t="n">
-        <v>21.67960191675059</v>
-      </c>
-      <c r="F72" t="n">
-        <v>74.66416863477686</v>
-      </c>
-      <c r="G72" t="n">
-        <v>8098.700941106578</v>
+        <v>164.2027568504288</v>
       </c>
     </row>
     <row r="73">
@@ -2108,22 +1454,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>49.50311928135149</v>
+        <v>84.7455899748429</v>
       </c>
       <c r="C73" t="n">
-        <v>80.03924216011366</v>
+        <v>20.66930508644865</v>
       </c>
       <c r="D73" t="n">
-        <v>64.18439491165846</v>
-      </c>
-      <c r="E73" t="n">
-        <v>25.50535140131802</v>
-      </c>
-      <c r="F73" t="n">
-        <v>90.08497788157257</v>
-      </c>
-      <c r="G73" t="n">
-        <v>3962.192151841084</v>
+        <v>105.4148950612916</v>
       </c>
     </row>
     <row r="74">
@@ -2131,22 +1468,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>36.08785524166458</v>
+        <v>28.45985330983705</v>
       </c>
       <c r="C74" t="n">
-        <v>97.71480959994553</v>
+        <v>44.5506344359839</v>
       </c>
       <c r="D74" t="n">
-        <v>21.57716337021235</v>
-      </c>
-      <c r="E74" t="n">
-        <v>49.57501454998405</v>
-      </c>
-      <c r="F74" t="n">
-        <v>68.99799217089114</v>
-      </c>
-      <c r="G74" t="n">
-        <v>3526.31790380965</v>
+        <v>73.01048774582095</v>
       </c>
     </row>
     <row r="75">
@@ -2154,22 +1482,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>71.41373850633794</v>
+        <v>62.87677955830012</v>
       </c>
       <c r="C75" t="n">
-        <v>96.06253128206646</v>
+        <v>34.04660305742971</v>
       </c>
       <c r="D75" t="n">
-        <v>55.34049742050355</v>
-      </c>
-      <c r="E75" t="n">
-        <v>40.11588037157726</v>
-      </c>
-      <c r="F75" t="n">
-        <v>54.28691680460604</v>
-      </c>
-      <c r="G75" t="n">
-        <v>6860.184489234402</v>
+        <v>96.92338261572984</v>
       </c>
     </row>
     <row r="76">
@@ -2177,22 +1496,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>29.26222285508344</v>
+        <v>18.85525938061755</v>
       </c>
       <c r="C76" t="n">
-        <v>47.38360242424736</v>
+        <v>34.51436367969865</v>
       </c>
       <c r="D76" t="n">
-        <v>31.48232043564438</v>
-      </c>
-      <c r="E76" t="n">
-        <v>1.051816311340092</v>
-      </c>
-      <c r="F76" t="n">
-        <v>97.16094772908102</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1386.549533814999</v>
+        <v>53.3696230603162</v>
       </c>
     </row>
     <row r="77">
@@ -2200,22 +1510,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>42.71499118264786</v>
+        <v>0.08297673007263695</v>
       </c>
       <c r="C77" t="n">
-        <v>77.68098569244199</v>
+        <v>5.377048287407494</v>
       </c>
       <c r="D77" t="n">
-        <v>2.157883647316194</v>
-      </c>
-      <c r="E77" t="n">
-        <v>57.48108165830026</v>
-      </c>
-      <c r="F77" t="n">
-        <v>82.78268874779774</v>
-      </c>
-      <c r="G77" t="n">
-        <v>3318.142618912055</v>
+        <v>5.460025017480131</v>
       </c>
     </row>
     <row r="78">
@@ -2223,22 +1524,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>42.39590530549361</v>
+        <v>61.30073890893637</v>
       </c>
       <c r="C78" t="n">
-        <v>57.53503517377833</v>
+        <v>64.01753142038888</v>
       </c>
       <c r="D78" t="n">
-        <v>86.68000703071132</v>
-      </c>
-      <c r="E78" t="n">
-        <v>4.538427329814954</v>
-      </c>
-      <c r="F78" t="n">
-        <v>86.24256386521108</v>
-      </c>
-      <c r="G78" t="n">
-        <v>2439.24990297575</v>
+        <v>125.3182703293252</v>
       </c>
     </row>
     <row r="79">
@@ -2246,22 +1538,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>86.4155561586598</v>
+        <v>58.73485270250549</v>
       </c>
       <c r="C79" t="n">
-        <v>69.65930361193577</v>
+        <v>51.04904702281209</v>
       </c>
       <c r="D79" t="n">
-        <v>51.3721292364058</v>
-      </c>
-      <c r="E79" t="n">
-        <v>23.9157502592773</v>
-      </c>
-      <c r="F79" t="n">
-        <v>42.90038116314129</v>
-      </c>
-      <c r="G79" t="n">
-        <v>6019.647463250369</v>
+        <v>109.7838997253176</v>
       </c>
     </row>
     <row r="80">
@@ -2269,22 +1552,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>16.25739850450751</v>
+        <v>6.57591396872006</v>
       </c>
       <c r="C80" t="n">
-        <v>77.23526579646979</v>
+        <v>43.94489547285351</v>
       </c>
       <c r="D80" t="n">
-        <v>33.89621856014262</v>
-      </c>
-      <c r="E80" t="n">
-        <v>27.20418772896185</v>
-      </c>
-      <c r="F80" t="n">
-        <v>38.77078962888289</v>
-      </c>
-      <c r="G80" t="n">
-        <v>1255.644494654768</v>
+        <v>50.52080944157357</v>
       </c>
     </row>
     <row r="81">
@@ -2292,22 +1566,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>43.99897483210901</v>
+        <v>29.21797100482006</v>
       </c>
       <c r="C81" t="n">
-        <v>13.4777139003016</v>
+        <v>24.06731811446029</v>
       </c>
       <c r="D81" t="n">
-        <v>56.11383778858382</v>
-      </c>
-      <c r="E81" t="n">
-        <v>56.2969164314188</v>
-      </c>
-      <c r="F81" t="n">
-        <v>77.15272542123121</v>
-      </c>
-      <c r="G81" t="n">
-        <v>593.0055946937359</v>
+        <v>53.28528911928035</v>
       </c>
     </row>
   </sheetData>
